--- a/Test input data/Test_Working_Roster.xlsx
+++ b/Test input data/Test_Working_Roster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d51c4b7793a5e0d/Documents/WLLR/Rostering program/Code development/Python code/Test input data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sambi\OneDrive\Documents\WLLR\Rostering program\Code development\Python code\Test input data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E71F4298-D550-47F4-8CD4-6B0E9D567C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65B346A7-DD18-4FEA-8778-3FE7CB278F72}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E71F4298-D550-47F4-8CD4-6B0E9D567C34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E6CD518D-8331-4ABE-980A-FCB35441C4DA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>John Travis</t>
+  </si>
+  <si>
+    <t>Kate Billmore</t>
+  </si>
+  <si>
+    <t>Stewart Charman</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,8 +474,8 @@
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -539,6 +545,9 @@
       <c r="D4">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -567,6 +576,9 @@
       <c r="D6">
         <v>6</v>
       </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -650,6 +662,9 @@
       </c>
       <c r="D12">
         <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
